--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0413B659-59E9-42BB-A059-B6E98658FF18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\A51-QA-Automation-Framework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FBC81D-4363-4E81-A810-0995B1811A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>test@test.com</t>
   </si>
   <si>
     <t>NoTest@noTest.com</t>
+  </si>
+  <si>
+    <t>sadasd@test.com</t>
+  </si>
+  <si>
+    <t>sdasda@test.com</t>
+  </si>
+  <si>
+    <t>sadqwetg@test.com</t>
+  </si>
+  <si>
+    <t>sadasdsf2@sad.com</t>
   </si>
 </sst>
 </file>
@@ -75,8 +92,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,7 +154,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -172,7 +189,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -354,16 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -374,10 +391,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D1B7EA98-4C13-4E5C-9C67-52B7F8FA4D57}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{5C920B7C-1742-48DC-8526-2D12550990BB}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8BD60A6C-F45A-448B-8E1E-4ECCD475727F}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{506E253F-68A0-4493-B4A2-DDA3292B449E}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{851FE651-FF58-485B-B51C-60E37C9687C3}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{C3D3A0CE-5ACC-4EA1-AE17-2C946E5D41FC}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{AE520A58-A496-40F5-8113-BBD73686B903}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{AAE6B649-00E8-43BC-9836-13B282CE37D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
